--- a/output/MOMENTUM/rebalance/rebalance_20240830.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240830.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>79.79%</t>
+          <t>79.80%</t>
         </is>
       </c>
     </row>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02715557804962268</v>
+        <v>0.02707976295331179</v>
       </c>
       <c r="C6" t="n">
         <v>0.02131305307137995</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005842524978242732</v>
+        <v>-0.005766709881931842</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0249670498148426</v>
+        <v>0.02491932224210603</v>
       </c>
       <c r="C8" t="n">
         <v>0.0211839541816304</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.003783095633212195</v>
+        <v>-0.003735368060475631</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02516458613454213</v>
+        <v>0.02512303003634616</v>
       </c>
       <c r="C14" t="n">
         <v>0.02074971246156374</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004414873672978388</v>
+        <v>-0.004373317574782418</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02620835315910174</v>
+        <v>0.0261445262634227</v>
       </c>
       <c r="C21" t="n">
         <v>0.0202509212966223</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.005957431862479431</v>
+        <v>-0.005893604966800397</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02197133583740741</v>
+        <v>0.02192074444874055</v>
       </c>
       <c r="C22" t="n">
         <v>0.0202509212966223</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001720414540785108</v>
+        <v>-0.001669823152118242</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02401078820871381</v>
+        <v>0.02396184880057989</v>
       </c>
       <c r="C24" t="n">
         <v>0.02013942680092951</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0038713614077843</v>
+        <v>-0.003822421999650376</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02376740298537677</v>
+        <v>0.02372336312943262</v>
       </c>
       <c r="C25" t="n">
         <v>0.020104218012816</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003663184972560768</v>
+        <v>-0.003619145116616623</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02190228409998441</v>
+        <v>0.02185821796786977</v>
       </c>
       <c r="C34" t="n">
         <v>0.01951740487759078</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002384879222393631</v>
+        <v>-0.002340813090278993</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01921972322159667</v>
+        <v>0.01918232308320749</v>
       </c>
       <c r="C37" t="n">
         <v>0.01937656972513673</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001568465035400556</v>
+        <v>0.000194246641929241</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02179511999899453</v>
+        <v>0.02175670614688692</v>
       </c>
       <c r="C38" t="n">
         <v>0.01935309719972772</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.002442022799266818</v>
+        <v>-0.002403608947159203</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02058234065314503</v>
+        <v>0.02053815262528938</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02058234065314503</v>
+        <v>-0.02053815262528938</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02224838230480734</v>
+        <v>0.02220682950605533</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02224838230480734</v>
+        <v>-0.02220682950605533</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01936374477933824</v>
+        <v>0.01932260884613946</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01936374477933824</v>
+        <v>-0.01932260884613946</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02119982155264528</v>
+        <v>0.0211637414396899</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02119982155264528</v>
+        <v>-0.0211637414396899</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02115512434274888</v>
+        <v>0.02110443162498365</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02115512434274888</v>
+        <v>-0.02110443162498365</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02207836083059716</v>
+        <v>0.0220514745474803</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02207836083059716</v>
+        <v>-0.0220514745474803</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01873838196767818</v>
+        <v>0.01870023199008198</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01873838196767818</v>
+        <v>-0.01870023199008198</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01657531249443991</v>
+        <v>0.0165415352715476</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01657531249443991</v>
+        <v>-0.0165415352715476</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01874716978949681</v>
+        <v>0.01870597954223529</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01874716978949681</v>
+        <v>-0.01870597954223529</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01791816542782003</v>
+        <v>0.01788778367155947</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01791816542782003</v>
+        <v>-0.01788778367155947</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01799943117449404</v>
+        <v>0.01796284518887009</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01799943117449404</v>
+        <v>-0.01796284518887009</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01724338173836551</v>
+        <v>0.01781481199572341</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01724338173836551</v>
+        <v>-0.01781481199572341</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01776450183592336</v>
+        <v>0.01772810027216212</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01776450183592336</v>
+        <v>-0.01772810027216212</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01855650814830546</v>
+        <v>0.01851788378353918</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01855650814830546</v>
+        <v>-0.01851788378353918</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02319362833525969</v>
+        <v>0.02314054669637317</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02319362833525969</v>
+        <v>-0.02314054669637317</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02477511172391492</v>
+        <v>0.02471223584914491</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02477511172391492</v>
+        <v>-0.02471223584914491</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.019332400937367</v>
+        <v>0.01929433756824727</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.019332400937367</v>
+        <v>-0.01929433756824727</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01597347410957336</v>
+        <v>0.01593873313297124</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01597347410957336</v>
+        <v>-0.01593873313297124</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01458525434971414</v>
+        <v>0.01459565455495917</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01458525434971414</v>
+        <v>-0.01459565455495917</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01753380781499331</v>
+        <v>0.01884657898781918</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01753380781499331</v>
+        <v>-0.01884657898781918</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01960062138853232</v>
+        <v>0.01956347829686776</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01960062138853232</v>
+        <v>-0.01956347829686776</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02065172718760543</v>
+        <v>0.02060894497133835</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02065172718760543</v>
+        <v>-0.02060894497133835</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02089520747944282</v>
+        <v>0.0208528080908358</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02089520747944282</v>
+        <v>-0.0208528080908358</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01780393957645195</v>
+        <v>0.01777043697563319</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01780393957645195</v>
+        <v>-0.01777043697563319</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01940738648425199</v>
+        <v>0.01936573983883809</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01940738648425199</v>
+        <v>-0.01936573983883809</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01913841804504238</v>
+        <v>0.01910273241050229</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01913841804504238</v>
+        <v>-0.01910273241050229</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02151794274596657</v>
+        <v>0.0214807023971066</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02151794274596657</v>
+        <v>-0.0214807023971066</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01775021687367542</v>
+        <v>0.01771602407670472</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01775021687367542</v>
+        <v>-0.01771602407670472</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01718252621096883</v>
+        <v>0.01715253232585843</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01718252621096883</v>
+        <v>-0.01715253232585843</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01680989510636286</v>
+        <v>0.01677773460609818</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01680989510636286</v>
+        <v>-0.01677773460609818</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02093035119508022</v>
+        <v>0.02088955002275633</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02093035119508022</v>
+        <v>-0.02088955002275633</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02158229242576746</v>
+        <v>0.02153871233986221</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02158229242576746</v>
+        <v>-0.02153871233986221</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01706913177867203</v>
+        <v>0.01702737360572759</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01706913177867203</v>
+        <v>-0.01702737360572759</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01779746096146479</v>
+        <v>0.01776190488124299</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01779746096146479</v>
+        <v>-0.01776190488124299</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02115178359406521</v>
+        <v>0.02111205085764807</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02115178359406521</v>
+        <v>-0.02111205085764807</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01920145487190452</v>
+        <v>0.01917566934479693</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01920145487190452</v>
+        <v>-0.01917566934479693</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0170714127967418</v>
+        <v>0.01704271747520205</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0170714127967418</v>
+        <v>-0.01704271747520205</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01778485652735608</v>
+        <v>0.0177643184140301</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01778485652735608</v>
+        <v>-0.0177643184140301</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01773523323571478</v>
+        <v>0.01769411280909237</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01773523323571478</v>
+        <v>-0.01769411280909237</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0171916156941221</v>
+        <v>0.01715811409308195</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0171916156941221</v>
+        <v>-0.01715811409308195</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240830.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240830.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>79.80%</t>
+          <t>79.78%</t>
         </is>
       </c>
     </row>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02707976295331179</v>
+        <v>0.02728110298743436</v>
       </c>
       <c r="C6" t="n">
         <v>0.02131305307137995</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005766709881931842</v>
+        <v>-0.005968049916054416</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02491932224210603</v>
+        <v>0.02508245841964647</v>
       </c>
       <c r="C8" t="n">
         <v>0.0211839541816304</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.003735368060475631</v>
+        <v>-0.003898504238016066</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02512303003634616</v>
+        <v>0.02528090783845959</v>
       </c>
       <c r="C14" t="n">
         <v>0.02074971246156374</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004373317574782418</v>
+        <v>-0.00453119537689585</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0261445262634227</v>
+        <v>0.02632949960991312</v>
       </c>
       <c r="C21" t="n">
         <v>0.0202509212966223</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.005893604966800397</v>
+        <v>-0.006078578313290811</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02192074444874055</v>
+        <v>0.02207289694428538</v>
       </c>
       <c r="C22" t="n">
         <v>0.0202509212966223</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001669823152118242</v>
+        <v>-0.001821975647663076</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02396184880057989</v>
+        <v>0.02390938355376034</v>
       </c>
       <c r="C24" t="n">
         <v>0.02013942680092951</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003822421999650376</v>
+        <v>-0.00376995675283083</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02372336312943262</v>
+        <v>0.02387726629877166</v>
       </c>
       <c r="C25" t="n">
         <v>0.020104218012816</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003619145116616623</v>
+        <v>-0.00377304828595566</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02185821796786977</v>
+        <v>0.02200352601958416</v>
       </c>
       <c r="C34" t="n">
         <v>0.01951740487759078</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002340813090278993</v>
+        <v>-0.002486121141993383</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01918232308320749</v>
+        <v>0.01930856517361626</v>
       </c>
       <c r="C37" t="n">
         <v>0.01937656972513673</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000194246641929241</v>
+        <v>6.800455152047163e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02175670614688692</v>
+        <v>0.02189586655933189</v>
       </c>
       <c r="C38" t="n">
         <v>0.01935309719972772</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.002403608947159203</v>
+        <v>-0.002542769359604173</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02053815262528938</v>
+        <v>0.02017417538698865</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02053815262528938</v>
+        <v>-0.02017417538698865</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02220682950605533</v>
+        <v>0.0223512240414155</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02220682950605533</v>
+        <v>-0.0223512240414155</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01932260884613946</v>
+        <v>0.01945325246187722</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01932260884613946</v>
+        <v>-0.01945325246187722</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0211637414396899</v>
+        <v>0.02085038326635387</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0211637414396899</v>
+        <v>-0.02085038326635387</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02110443162498365</v>
+        <v>0.02125291256374237</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02110443162498365</v>
+        <v>-0.02125291256374237</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0220514745474803</v>
+        <v>0.02218041665372051</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0220514745474803</v>
+        <v>-0.02218041665372051</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01870023199008198</v>
+        <v>0.01882499895026962</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01870023199008198</v>
+        <v>-0.01882499895026962</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0165415352715476</v>
+        <v>0.01645373568712231</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0165415352715476</v>
+        <v>-0.01645373568712231</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01870597954223529</v>
+        <v>0.01883382739323744</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01870597954223529</v>
+        <v>-0.01883382739323744</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01788778367155947</v>
+        <v>0.01800099101145949</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01788778367155947</v>
+        <v>-0.01800099101145949</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01796284518887009</v>
+        <v>0.01808263240389506</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01796284518887009</v>
+        <v>-0.01808263240389506</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01781481199572341</v>
+        <v>0.01671526052184347</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01781481199572341</v>
+        <v>-0.01671526052184347</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01772810027216212</v>
+        <v>0.01784661711935187</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01772810027216212</v>
+        <v>-0.01784661711935187</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01851788378353918</v>
+        <v>0.01864228443069805</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01851788378353918</v>
+        <v>-0.01864228443069805</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02314054669637317</v>
+        <v>0.02330083941171295</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02314054669637317</v>
+        <v>-0.02330083941171295</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02471223584914491</v>
+        <v>0.02488963310706276</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02471223584914491</v>
+        <v>-0.02488963310706276</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01929433756824727</v>
+        <v>0.01942176373498372</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01929433756824727</v>
+        <v>-0.01942176373498372</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01593873313297124</v>
+        <v>0.01604731048089188</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01593873313297124</v>
+        <v>-0.01604731048089188</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01459565455495917</v>
+        <v>0.01465267376320885</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01459565455495917</v>
+        <v>-0.01465267376320885</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01884657898781918</v>
+        <v>0.01701263941587315</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01884657898781918</v>
+        <v>-0.01701263941587315</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01956347829686776</v>
+        <v>0.01969122401817881</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01956347829686776</v>
+        <v>-0.01969122401817881</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02060894497133835</v>
+        <v>0.02074718848716573</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02060894497133835</v>
+        <v>-0.02074718848716573</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0208528080908358</v>
+        <v>0.02099179425121497</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.0208528080908358</v>
+        <v>-0.02099179425121497</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01777043697563319</v>
+        <v>0.01731108730368888</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01777043697563319</v>
+        <v>-0.01731108730368888</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01936573983883809</v>
+        <v>0.01949709589780495</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01936573983883809</v>
+        <v>-0.01949709589780495</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01910273241050229</v>
+        <v>0.01922688416903827</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01910273241050229</v>
+        <v>-0.01922688416903827</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0214807023971066</v>
+        <v>0.02161740807202546</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0214807023971066</v>
+        <v>-0.02161740807202546</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01771602407670472</v>
+        <v>0.01783226612577163</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01771602407670472</v>
+        <v>-0.01783226612577163</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01715253232585843</v>
+        <v>0.01726195134896952</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01715253232585843</v>
+        <v>-0.01726195134896952</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01677773460609818</v>
+        <v>0.01608689271351939</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01677773460609818</v>
+        <v>-0.01608689271351939</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02088955002275633</v>
+        <v>0.02102710041644971</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02088955002275633</v>
+        <v>-0.02102710041644971</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02153871233986221</v>
+        <v>0.02168205520414133</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02153871233986221</v>
+        <v>-0.02168205520414133</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01702737360572759</v>
+        <v>0.01714803275809888</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01702737360572759</v>
+        <v>-0.01714803275809888</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01776190488124299</v>
+        <v>0.01787972859636143</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01776190488124299</v>
+        <v>-0.01787972859636143</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02111205085764807</v>
+        <v>0.02124955637265972</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02111205085764807</v>
+        <v>-0.02124955637265972</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01917566934479693</v>
+        <v>0.01929021237963592</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01917566934479693</v>
+        <v>-0.01929021237963592</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01704271747520205</v>
+        <v>0.01647511470113124</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01704271747520205</v>
+        <v>-0.01647511470113124</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0177643184140301</v>
+        <v>0.01786706589905522</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0177643184140301</v>
+        <v>-0.01786706589905522</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01769411280909237</v>
+        <v>0.01781721322689454</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01769411280909237</v>
+        <v>-0.01781721322689454</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8151,13 +8151,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01715811409308195</v>
+        <v>0.01727108284768238</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01715811409308195</v>
+        <v>-0.01727108284768238</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
